--- a/Config/data_config/BattleProcessWave.xlsx
+++ b/Config/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16035" windowHeight="11700"/>
+    <workbookView windowWidth="28440" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -1284,10 +1284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1428,10 +1428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
+    <row r="4" spans="2:13">
       <c r="B4">
         <v>101</v>
       </c>
@@ -1469,10 +1466,7 @@
         <v>100101</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>102</v>
       </c>
@@ -1510,10 +1504,7 @@
         <v>100102</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>103</v>
       </c>
@@ -1551,10 +1542,7 @@
         <v>100103</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>104</v>
       </c>
@@ -1592,10 +1580,7 @@
         <v>100104</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>105</v>
       </c>
@@ -1633,10 +1618,7 @@
         <v>100105</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>106</v>
       </c>
@@ -1674,10 +1656,7 @@
         <v>100106</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>107</v>
       </c>
@@ -1715,10 +1694,7 @@
         <v>100107</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>108</v>
       </c>
@@ -1756,10 +1732,7 @@
         <v>100108</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>109</v>
       </c>
@@ -1797,10 +1770,7 @@
         <v>100109</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>110</v>
       </c>
@@ -1838,10 +1808,7 @@
         <v>100110</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>111</v>
       </c>
@@ -1879,10 +1846,7 @@
         <v>100111</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>112</v>
       </c>
@@ -1920,10 +1884,7 @@
         <v>100112</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
+    <row r="16" spans="2:13">
       <c r="B16">
         <v>113</v>
       </c>
@@ -1961,10 +1922,7 @@
         <v>100113</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>114</v>
       </c>
@@ -2002,10 +1960,7 @@
         <v>100114</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
+    <row r="18" spans="2:13">
       <c r="B18">
         <v>115</v>
       </c>
@@ -2043,10 +1998,7 @@
         <v>100115</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
+    <row r="19" spans="2:13">
       <c r="B19">
         <v>116</v>
       </c>
@@ -2084,10 +2036,7 @@
         <v>100116</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
+    <row r="20" spans="2:13">
       <c r="B20">
         <v>117</v>
       </c>
@@ -2125,10 +2074,7 @@
         <v>100117</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
+    <row r="21" spans="2:13">
       <c r="B21">
         <v>118</v>
       </c>
@@ -2166,10 +2112,7 @@
         <v>100118</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
+    <row r="22" spans="2:13">
       <c r="B22">
         <v>119</v>
       </c>
@@ -2207,10 +2150,7 @@
         <v>100119</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
+    <row r="23" spans="2:13">
       <c r="B23">
         <v>120</v>
       </c>
@@ -2254,11 +2194,87 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>101</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>999999999</v>
+      </c>
+      <c r="I26">
+        <v>60000</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>100001</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>102</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>999999999</v>
+      </c>
+      <c r="I27">
+        <v>180000</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>100020</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>100120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
